--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link3_request1200.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link3_request1200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2765"/>
+  <dimension ref="A1:C2764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.144</v>
+        <v>20.144</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.0712</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0616</v>
+        <v>0.0624</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0624</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.032</v>
+        <v>0.0312</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0208</v>
+        <v>0.0216</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0176</v>
+        <v>0.0168</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.890400000000001</v>
+        <v>5.8912</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3592</v>
+        <v>0.3576</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.024</v>
+        <v>0.0248</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06080000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0168</v>
+        <v>0.0176</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03680000000000001</v>
+        <v>0.036</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03920000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0352</v>
+        <v>0.0344</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0144</v>
+        <v>0.0152</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1144</v>
+        <v>0.1136</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.204</v>
+        <v>0.2048</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4448</v>
+        <v>0.4456</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3272</v>
+        <v>0.3264</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.44</v>
+        <v>0.4408</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4312</v>
+        <v>0.4304000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2296</v>
+        <v>0.2304</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3712</v>
+        <v>0.3704</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3224</v>
+        <v>0.3232</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.404</v>
+        <v>0.4032000000000001</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.3624</v>
+        <v>3.3616</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.4352</v>
+        <v>3.436</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.428</v>
+        <v>0.4272</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3888</v>
+        <v>0.3896</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>0.0176</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="164">
@@ -2235,7 +2235,7 @@
         <v>0.3984</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="165">
@@ -2246,7 +2246,7 @@
         <v>1.1288</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="166">
@@ -2257,7 +2257,7 @@
         <v>0.372</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="167">
@@ -2268,7 +2268,7 @@
         <v>0.1704</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="168">
@@ -2279,7 +2279,7 @@
         <v>0.0384</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="169">
@@ -2290,7 +2290,7 @@
         <v>0.356</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="170">
@@ -2301,7 +2301,7 @@
         <v>0.3488</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="171">
@@ -2312,7 +2312,7 @@
         <v>0.652</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="172">
@@ -2323,7 +2323,7 @@
         <v>0.4</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="173">
@@ -2334,7 +2334,7 @@
         <v>0.368</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="174">
@@ -2345,7 +2345,7 @@
         <v>0.316</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="175">
@@ -2356,7 +2356,7 @@
         <v>0.8832000000000001</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="176">
@@ -2367,7 +2367,7 @@
         <v>0.4176</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="177">
@@ -2378,7 +2378,7 @@
         <v>0.4688</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="178">
@@ -2397,7 +2397,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8976000000000001</v>
+        <v>0.8984000000000001</v>
       </c>
       <c r="C179" t="n">
         <v>312501</v>
@@ -2408,7 +2408,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.18</v>
+        <v>0.1792</v>
       </c>
       <c r="C180" t="n">
         <v>312501</v>
@@ -2419,7 +2419,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.8656</v>
+        <v>0.8664000000000001</v>
       </c>
       <c r="C181" t="n">
         <v>312501</v>
@@ -2430,7 +2430,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.384</v>
+        <v>1.3832</v>
       </c>
       <c r="C182" t="n">
         <v>312501</v>
@@ -2452,7 +2452,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.3848</v>
+        <v>1.3856</v>
       </c>
       <c r="C184" t="n">
         <v>312501</v>
@@ -2463,7 +2463,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.92</v>
+        <v>0.9192</v>
       </c>
       <c r="C185" t="n">
         <v>312501</v>
@@ -2474,7 +2474,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9128000000000001</v>
+        <v>0.9136</v>
       </c>
       <c r="C186" t="n">
         <v>312501</v>
@@ -2485,7 +2485,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.3952</v>
+        <v>1.3944</v>
       </c>
       <c r="C187" t="n">
         <v>312501</v>
@@ -3211,7 +3211,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.009600000000000001</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="C253" t="n">
         <v>312501</v>
@@ -3222,7 +3222,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.436</v>
+        <v>0.4368</v>
       </c>
       <c r="C254" t="n">
         <v>312501</v>
@@ -3621,7 +3621,7 @@
         <v>0.476</v>
       </c>
       <c r="C290" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="291">
@@ -3632,7 +3632,7 @@
         <v>0.4</v>
       </c>
       <c r="C291" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="292">
@@ -3643,7 +3643,7 @@
         <v>0.892</v>
       </c>
       <c r="C292" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="293">
@@ -3654,7 +3654,7 @@
         <v>0.4</v>
       </c>
       <c r="C293" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="294">
@@ -3665,7 +3665,7 @@
         <v>0.86</v>
       </c>
       <c r="C294" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="295">
@@ -3676,7 +3676,7 @@
         <v>0.624</v>
       </c>
       <c r="C295" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="296">
@@ -4820,7 +4820,7 @@
         <v>0.664</v>
       </c>
       <c r="C399" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="400">
@@ -4831,7 +4831,7 @@
         <v>0.752</v>
       </c>
       <c r="C400" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="401">
@@ -4842,7 +4842,7 @@
         <v>1.116</v>
       </c>
       <c r="C401" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="402">
@@ -4853,7 +4853,7 @@
         <v>1.012</v>
       </c>
       <c r="C402" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="403">
@@ -5733,7 +5733,7 @@
         <v>0.436</v>
       </c>
       <c r="C482" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="483">
@@ -5744,7 +5744,7 @@
         <v>1.072</v>
       </c>
       <c r="C483" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="484">
@@ -5755,7 +5755,7 @@
         <v>7.576</v>
       </c>
       <c r="C484" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="485">
@@ -5766,7 +5766,7 @@
         <v>0.604</v>
       </c>
       <c r="C485" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="486">
@@ -5777,7 +5777,7 @@
         <v>1.796</v>
       </c>
       <c r="C486" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="487">
@@ -6115,7 +6115,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>5.793600000000001</v>
+        <v>5.7944</v>
       </c>
       <c r="C517" t="n">
         <v>1250001</v>
@@ -6126,7 +6126,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>1.3576</v>
+        <v>1.3568</v>
       </c>
       <c r="C518" t="n">
         <v>1250001</v>
@@ -6170,7 +6170,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>0.0232</v>
+        <v>0.024</v>
       </c>
       <c r="C522" t="n">
         <v>1250001</v>
@@ -6181,7 +6181,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>0.2816</v>
+        <v>0.2808</v>
       </c>
       <c r="C523" t="n">
         <v>1250001</v>
@@ -6214,7 +6214,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>0.188</v>
+        <v>0.1888</v>
       </c>
       <c r="C526" t="n">
         <v>1250001</v>
@@ -6247,7 +6247,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>0.2064</v>
+        <v>0.2056</v>
       </c>
       <c r="C529" t="n">
         <v>1250001</v>
@@ -6258,7 +6258,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>0.136</v>
+        <v>0.1368</v>
       </c>
       <c r="C530" t="n">
         <v>1250001</v>
@@ -6269,7 +6269,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.07840000000000001</v>
       </c>
       <c r="C531" t="n">
         <v>1250001</v>
@@ -6324,7 +6324,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>0.264</v>
+        <v>0.2648</v>
       </c>
       <c r="C536" t="n">
         <v>1250001</v>
@@ -6346,7 +6346,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>0.2264</v>
+        <v>0.2256</v>
       </c>
       <c r="C538" t="n">
         <v>1250001</v>
@@ -7328,7 +7328,7 @@
         <v>0.9464000000000001</v>
       </c>
       <c r="C627" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="628">
@@ -7339,7 +7339,7 @@
         <v>1.9112</v>
       </c>
       <c r="C628" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="629">
@@ -7350,7 +7350,7 @@
         <v>2.032</v>
       </c>
       <c r="C629" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="630">
@@ -7361,7 +7361,7 @@
         <v>0.852</v>
       </c>
       <c r="C630" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="631">
@@ -7372,7 +7372,7 @@
         <v>1.1</v>
       </c>
       <c r="C631" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="632">
@@ -7383,7 +7383,7 @@
         <v>0.6936</v>
       </c>
       <c r="C632" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="633">
@@ -7394,7 +7394,7 @@
         <v>2.4464</v>
       </c>
       <c r="C633" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="634">
@@ -7405,7 +7405,7 @@
         <v>1.4272</v>
       </c>
       <c r="C634" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="635">
@@ -7416,7 +7416,7 @@
         <v>3.1744</v>
       </c>
       <c r="C635" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="636">
@@ -8153,7 +8153,7 @@
         <v>12.4272</v>
       </c>
       <c r="C702" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="703">
@@ -8164,7 +8164,7 @@
         <v>1.0448</v>
       </c>
       <c r="C703" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="704">
@@ -8175,7 +8175,7 @@
         <v>0.476</v>
       </c>
       <c r="C704" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="705">
@@ -8186,7 +8186,7 @@
         <v>1.4104</v>
       </c>
       <c r="C705" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="706">
@@ -8513,7 +8513,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>16.808</v>
+        <v>16.8072</v>
       </c>
       <c r="C735" t="n">
         <v>1875001</v>
@@ -8524,7 +8524,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>3.9352</v>
+        <v>3.936</v>
       </c>
       <c r="C736" t="n">
         <v>1875001</v>
@@ -8535,7 +8535,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>3.8848</v>
+        <v>3.884</v>
       </c>
       <c r="C737" t="n">
         <v>1875001</v>
@@ -8546,7 +8546,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>4.027200000000001</v>
+        <v>4.028</v>
       </c>
       <c r="C738" t="n">
         <v>1875001</v>
@@ -8615,7 +8615,7 @@
         <v>8.9152</v>
       </c>
       <c r="C744" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="745">
@@ -8626,7 +8626,7 @@
         <v>3.9336</v>
       </c>
       <c r="C745" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="746">
@@ -8637,7 +8637,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C746" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="747">
@@ -8898,7 +8898,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>11.4024</v>
+        <v>6.8768</v>
       </c>
       <c r="C770" t="n">
         <v>2187501</v>
@@ -8909,7 +8909,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>7.4184</v>
+        <v>4.4504</v>
       </c>
       <c r="C771" t="n">
         <v>2187501</v>
@@ -8920,7 +8920,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>3.8768</v>
+        <v>7.4184</v>
       </c>
       <c r="C772" t="n">
         <v>2187501</v>
@@ -8931,7 +8931,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>22.9184</v>
+        <v>26.8704</v>
       </c>
       <c r="C773" t="n">
         <v>2187501</v>
@@ -9888,7 +9888,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>0.472</v>
+        <v>0.4728</v>
       </c>
       <c r="C860" t="n">
         <v>2500001</v>
@@ -9899,7 +9899,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3008</v>
+        <v>0.3</v>
       </c>
       <c r="C861" t="n">
         <v>2500001</v>
@@ -10298,7 +10298,7 @@
         <v>0.7976</v>
       </c>
       <c r="C897" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="898">
@@ -10309,7 +10309,7 @@
         <v>3.9504</v>
       </c>
       <c r="C898" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="899">
@@ -10320,7 +10320,7 @@
         <v>2.8008</v>
       </c>
       <c r="C899" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="900">
@@ -10331,7 +10331,7 @@
         <v>0.6936</v>
       </c>
       <c r="C900" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="901">
@@ -10342,7 +10342,7 @@
         <v>2.4472</v>
       </c>
       <c r="C901" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="902">
@@ -10353,7 +10353,7 @@
         <v>1.4264</v>
       </c>
       <c r="C902" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="903">
@@ -10364,7 +10364,7 @@
         <v>3.1736</v>
       </c>
       <c r="C903" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="904">
@@ -10936,7 +10936,7 @@
         <v>12.4264</v>
       </c>
       <c r="C955" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="956">
@@ -10947,7 +10947,7 @@
         <v>2.416</v>
       </c>
       <c r="C956" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="957">
@@ -10958,7 +10958,7 @@
         <v>1.4104</v>
       </c>
       <c r="C957" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="958">
@@ -11365,7 +11365,7 @@
         <v>3.9344</v>
       </c>
       <c r="C994" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="995">
@@ -11376,7 +11376,7 @@
         <v>7.865600000000001</v>
       </c>
       <c r="C995" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="996">
@@ -11637,7 +11637,7 @@
         <v>1017</v>
       </c>
       <c r="B1019" t="n">
-        <v>11.4016</v>
+        <v>6.8768</v>
       </c>
       <c r="C1019" t="n">
         <v>3437501</v>
@@ -11648,7 +11648,7 @@
         <v>1018</v>
       </c>
       <c r="B1020" t="n">
-        <v>7.419200000000001</v>
+        <v>4.4496</v>
       </c>
       <c r="C1020" t="n">
         <v>3437501</v>
@@ -11659,7 +11659,7 @@
         <v>1019</v>
       </c>
       <c r="B1021" t="n">
-        <v>3.8768</v>
+        <v>7.419200000000001</v>
       </c>
       <c r="C1021" t="n">
         <v>3437501</v>
@@ -11670,7 +11670,7 @@
         <v>1020</v>
       </c>
       <c r="B1022" t="n">
-        <v>22.9176</v>
+        <v>26.8696</v>
       </c>
       <c r="C1022" t="n">
         <v>3437501</v>
@@ -13037,7 +13037,7 @@
         <v>0.7976</v>
       </c>
       <c r="C1146" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1147">
@@ -13048,7 +13048,7 @@
         <v>3.9504</v>
       </c>
       <c r="C1147" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1148">
@@ -13059,7 +13059,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1148" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1149">
@@ -13070,7 +13070,7 @@
         <v>0.6936</v>
       </c>
       <c r="C1149" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1150">
@@ -13081,7 +13081,7 @@
         <v>2.4472</v>
       </c>
       <c r="C1150" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1151">
@@ -13092,7 +13092,7 @@
         <v>1.4264</v>
       </c>
       <c r="C1151" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1152">
@@ -13103,7 +13103,7 @@
         <v>3.1736</v>
       </c>
       <c r="C1152" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1153">
@@ -13320,7 +13320,7 @@
         <v>1170</v>
       </c>
       <c r="B1172" t="n">
-        <v>1.4248</v>
+        <v>1.424</v>
       </c>
       <c r="C1172" t="n">
         <v>4062501</v>
@@ -13342,7 +13342,7 @@
         <v>1172</v>
       </c>
       <c r="B1174" t="n">
-        <v>0.7032</v>
+        <v>0.704</v>
       </c>
       <c r="C1174" t="n">
         <v>4062501</v>
@@ -13675,7 +13675,7 @@
         <v>12.4272</v>
       </c>
       <c r="C1204" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1205">
@@ -13686,7 +13686,7 @@
         <v>2.416</v>
       </c>
       <c r="C1205" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1206">
@@ -13697,7 +13697,7 @@
         <v>1.4104</v>
       </c>
       <c r="C1206" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1207">
@@ -14104,7 +14104,7 @@
         <v>3.9336</v>
       </c>
       <c r="C1243" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1244">
@@ -14115,7 +14115,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C1244" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1245">
@@ -14376,7 +14376,7 @@
         <v>1266</v>
       </c>
       <c r="B1268" t="n">
-        <v>11.4024</v>
+        <v>6.8768</v>
       </c>
       <c r="C1268" t="n">
         <v>4687501</v>
@@ -14387,7 +14387,7 @@
         <v>1267</v>
       </c>
       <c r="B1269" t="n">
-        <v>7.4184</v>
+        <v>4.4504</v>
       </c>
       <c r="C1269" t="n">
         <v>4687501</v>
@@ -14398,7 +14398,7 @@
         <v>1268</v>
       </c>
       <c r="B1270" t="n">
-        <v>3.8768</v>
+        <v>7.4184</v>
       </c>
       <c r="C1270" t="n">
         <v>4687501</v>
@@ -14409,7 +14409,7 @@
         <v>1269</v>
       </c>
       <c r="B1271" t="n">
-        <v>22.9184</v>
+        <v>26.8704</v>
       </c>
       <c r="C1271" t="n">
         <v>4687501</v>
@@ -15586,7 +15586,7 @@
         <v>1376</v>
       </c>
       <c r="B1378" t="n">
-        <v>0.4392</v>
+        <v>0.44</v>
       </c>
       <c r="C1378" t="n">
         <v>5000001</v>
@@ -15597,7 +15597,7 @@
         <v>1377</v>
       </c>
       <c r="B1379" t="n">
-        <v>2.44</v>
+        <v>2.4392</v>
       </c>
       <c r="C1379" t="n">
         <v>5000001</v>
@@ -15776,7 +15776,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C1395" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1396">
@@ -15787,7 +15787,7 @@
         <v>3.9504</v>
       </c>
       <c r="C1396" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1397">
@@ -15798,7 +15798,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1397" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1398">
@@ -15809,7 +15809,7 @@
         <v>0.6936</v>
       </c>
       <c r="C1398" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1399">
@@ -15820,7 +15820,7 @@
         <v>2.4464</v>
       </c>
       <c r="C1399" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1400">
@@ -15831,7 +15831,7 @@
         <v>1.428</v>
       </c>
       <c r="C1400" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1401">
@@ -15842,7 +15842,7 @@
         <v>3.1728</v>
       </c>
       <c r="C1401" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1402">
@@ -16414,7 +16414,7 @@
         <v>12.428</v>
       </c>
       <c r="C1453" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1454">
@@ -16425,7 +16425,7 @@
         <v>2.4152</v>
       </c>
       <c r="C1454" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1455">
@@ -16436,7 +16436,7 @@
         <v>1.4104</v>
       </c>
       <c r="C1455" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1456">
@@ -16843,7 +16843,7 @@
         <v>3.9336</v>
       </c>
       <c r="C1492" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1493">
@@ -16854,7 +16854,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C1493" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1494">
@@ -17115,7 +17115,7 @@
         <v>1515</v>
       </c>
       <c r="B1517" t="n">
-        <v>11.4024</v>
+        <v>6.8768</v>
       </c>
       <c r="C1517" t="n">
         <v>5937501</v>
@@ -17126,7 +17126,7 @@
         <v>1516</v>
       </c>
       <c r="B1518" t="n">
-        <v>7.4184</v>
+        <v>4.4504</v>
       </c>
       <c r="C1518" t="n">
         <v>5937501</v>
@@ -17137,7 +17137,7 @@
         <v>1517</v>
       </c>
       <c r="B1519" t="n">
-        <v>3.8768</v>
+        <v>7.4184</v>
       </c>
       <c r="C1519" t="n">
         <v>5937501</v>
@@ -17148,7 +17148,7 @@
         <v>1518</v>
       </c>
       <c r="B1520" t="n">
-        <v>22.9184</v>
+        <v>26.8704</v>
       </c>
       <c r="C1520" t="n">
         <v>5937501</v>
@@ -18515,7 +18515,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C1644" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1645">
@@ -18526,7 +18526,7 @@
         <v>3.9504</v>
       </c>
       <c r="C1645" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1646">
@@ -18537,7 +18537,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1646" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1647">
@@ -18548,7 +18548,7 @@
         <v>0.6936</v>
       </c>
       <c r="C1647" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1648">
@@ -18559,7 +18559,7 @@
         <v>2.4464</v>
       </c>
       <c r="C1648" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1649">
@@ -18570,7 +18570,7 @@
         <v>1.428</v>
       </c>
       <c r="C1649" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1650">
@@ -18581,7 +18581,7 @@
         <v>3.1728</v>
       </c>
       <c r="C1650" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1651">
@@ -19153,7 +19153,7 @@
         <v>12.428</v>
       </c>
       <c r="C1702" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1703">
@@ -19164,7 +19164,7 @@
         <v>2.4152</v>
       </c>
       <c r="C1703" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1704">
@@ -19175,7 +19175,7 @@
         <v>1.4104</v>
       </c>
       <c r="C1704" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1705">
@@ -19582,7 +19582,7 @@
         <v>3.9336</v>
       </c>
       <c r="C1741" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1742">
@@ -19593,7 +19593,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C1742" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1743">
@@ -19854,7 +19854,7 @@
         <v>1764</v>
       </c>
       <c r="B1766" t="n">
-        <v>11.4024</v>
+        <v>6.8768</v>
       </c>
       <c r="C1766" t="n">
         <v>7187501</v>
@@ -19865,7 +19865,7 @@
         <v>1765</v>
       </c>
       <c r="B1767" t="n">
-        <v>7.4184</v>
+        <v>4.4504</v>
       </c>
       <c r="C1767" t="n">
         <v>7187501</v>
@@ -19876,7 +19876,7 @@
         <v>1766</v>
       </c>
       <c r="B1768" t="n">
-        <v>3.8768</v>
+        <v>7.4184</v>
       </c>
       <c r="C1768" t="n">
         <v>7187501</v>
@@ -19887,7 +19887,7 @@
         <v>1767</v>
       </c>
       <c r="B1769" t="n">
-        <v>22.9184</v>
+        <v>26.8704</v>
       </c>
       <c r="C1769" t="n">
         <v>7187501</v>
@@ -21254,7 +21254,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C1893" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1894">
@@ -21265,7 +21265,7 @@
         <v>3.9504</v>
       </c>
       <c r="C1894" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1895">
@@ -21276,7 +21276,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1895" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1896">
@@ -21287,7 +21287,7 @@
         <v>0.6936</v>
       </c>
       <c r="C1896" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1897">
@@ -21298,7 +21298,7 @@
         <v>2.4464</v>
       </c>
       <c r="C1897" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1898">
@@ -21309,7 +21309,7 @@
         <v>1.428</v>
       </c>
       <c r="C1898" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1899">
@@ -21320,7 +21320,7 @@
         <v>3.1728</v>
       </c>
       <c r="C1899" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1900">
@@ -21892,7 +21892,7 @@
         <v>12.428</v>
       </c>
       <c r="C1951" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1952">
@@ -21903,7 +21903,7 @@
         <v>2.4152</v>
       </c>
       <c r="C1952" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1953">
@@ -21914,7 +21914,7 @@
         <v>1.4104</v>
       </c>
       <c r="C1953" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1954">
@@ -22321,7 +22321,7 @@
         <v>3.9336</v>
       </c>
       <c r="C1990" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="1991">
@@ -22332,7 +22332,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C1991" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="1992">
@@ -22593,7 +22593,7 @@
         <v>2013</v>
       </c>
       <c r="B2015" t="n">
-        <v>11.4024</v>
+        <v>6.8768</v>
       </c>
       <c r="C2015" t="n">
         <v>8437501</v>
@@ -22604,7 +22604,7 @@
         <v>2014</v>
       </c>
       <c r="B2016" t="n">
-        <v>7.4184</v>
+        <v>4.4504</v>
       </c>
       <c r="C2016" t="n">
         <v>8437501</v>
@@ -22615,7 +22615,7 @@
         <v>2015</v>
       </c>
       <c r="B2017" t="n">
-        <v>3.8768</v>
+        <v>7.4184</v>
       </c>
       <c r="C2017" t="n">
         <v>8437501</v>
@@ -22626,7 +22626,7 @@
         <v>2016</v>
       </c>
       <c r="B2018" t="n">
-        <v>22.9184</v>
+        <v>26.8704</v>
       </c>
       <c r="C2018" t="n">
         <v>8437501</v>
@@ -23993,7 +23993,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C2142" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2143">
@@ -24004,7 +24004,7 @@
         <v>3.9504</v>
       </c>
       <c r="C2143" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2144">
@@ -24015,7 +24015,7 @@
         <v>2.8008</v>
       </c>
       <c r="C2144" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2145">
@@ -24026,7 +24026,7 @@
         <v>0.6936</v>
       </c>
       <c r="C2145" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2146">
@@ -24037,7 +24037,7 @@
         <v>2.4464</v>
       </c>
       <c r="C2146" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2147">
@@ -24048,7 +24048,7 @@
         <v>1.4272</v>
       </c>
       <c r="C2147" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2148">
@@ -24059,7 +24059,7 @@
         <v>3.1736</v>
       </c>
       <c r="C2148" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2149">
@@ -24631,7 +24631,7 @@
         <v>12.4272</v>
       </c>
       <c r="C2200" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2201">
@@ -24642,7 +24642,7 @@
         <v>2.416</v>
       </c>
       <c r="C2201" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2202">
@@ -24653,7 +24653,7 @@
         <v>1.4104</v>
       </c>
       <c r="C2202" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2203">
@@ -25060,7 +25060,7 @@
         <v>3.9336</v>
       </c>
       <c r="C2239" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2240">
@@ -25071,7 +25071,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C2240" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2241">
@@ -25332,7 +25332,7 @@
         <v>2262</v>
       </c>
       <c r="B2264" t="n">
-        <v>11.4024</v>
+        <v>6.8768</v>
       </c>
       <c r="C2264" t="n">
         <v>9687501</v>
@@ -25343,7 +25343,7 @@
         <v>2263</v>
       </c>
       <c r="B2265" t="n">
-        <v>7.4184</v>
+        <v>4.4504</v>
       </c>
       <c r="C2265" t="n">
         <v>9687501</v>
@@ -25354,7 +25354,7 @@
         <v>2264</v>
       </c>
       <c r="B2266" t="n">
-        <v>3.8768</v>
+        <v>7.4184</v>
       </c>
       <c r="C2266" t="n">
         <v>9687501</v>
@@ -25365,7 +25365,7 @@
         <v>2265</v>
       </c>
       <c r="B2267" t="n">
-        <v>22.9184</v>
+        <v>26.8704</v>
       </c>
       <c r="C2267" t="n">
         <v>9687501</v>
@@ -26732,7 +26732,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C2391" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2392">
@@ -26743,7 +26743,7 @@
         <v>3.9504</v>
       </c>
       <c r="C2392" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2393">
@@ -26754,7 +26754,7 @@
         <v>2.8008</v>
       </c>
       <c r="C2393" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2394">
@@ -26765,7 +26765,7 @@
         <v>0.6936</v>
       </c>
       <c r="C2394" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2395">
@@ -26776,7 +26776,7 @@
         <v>2.4464</v>
       </c>
       <c r="C2395" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2396">
@@ -26787,7 +26787,7 @@
         <v>1.4272</v>
       </c>
       <c r="C2396" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2397">
@@ -26798,7 +26798,7 @@
         <v>3.1736</v>
       </c>
       <c r="C2397" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2398">
@@ -27370,7 +27370,7 @@
         <v>12.4272</v>
       </c>
       <c r="C2449" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2450">
@@ -27381,7 +27381,7 @@
         <v>2.416</v>
       </c>
       <c r="C2450" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2451">
@@ -27392,7 +27392,7 @@
         <v>1.4104</v>
       </c>
       <c r="C2451" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2452">
@@ -27799,7 +27799,7 @@
         <v>3.9336</v>
       </c>
       <c r="C2488" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="2489">
@@ -27810,7 +27810,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C2489" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="2490">
@@ -28071,7 +28071,7 @@
         <v>2511</v>
       </c>
       <c r="B2513" t="n">
-        <v>11.4024</v>
+        <v>6.8768</v>
       </c>
       <c r="C2513" t="n">
         <v>10937501</v>
@@ -28082,7 +28082,7 @@
         <v>2512</v>
       </c>
       <c r="B2514" t="n">
-        <v>7.4184</v>
+        <v>4.4504</v>
       </c>
       <c r="C2514" t="n">
         <v>10937501</v>
@@ -28093,7 +28093,7 @@
         <v>2513</v>
       </c>
       <c r="B2515" t="n">
-        <v>3.8768</v>
+        <v>7.4184</v>
       </c>
       <c r="C2515" t="n">
         <v>10937501</v>
@@ -28104,7 +28104,7 @@
         <v>2514</v>
       </c>
       <c r="B2516" t="n">
-        <v>22.9184</v>
+        <v>26.8704</v>
       </c>
       <c r="C2516" t="n">
         <v>10937501</v>
@@ -29471,7 +29471,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C2640" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2641">
@@ -29482,7 +29482,7 @@
         <v>3.9504</v>
       </c>
       <c r="C2641" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2642">
@@ -29493,7 +29493,7 @@
         <v>2.8008</v>
       </c>
       <c r="C2642" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2643">
@@ -29504,7 +29504,7 @@
         <v>0.6936</v>
       </c>
       <c r="C2643" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2644">
@@ -29515,7 +29515,7 @@
         <v>2.4464</v>
       </c>
       <c r="C2644" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2645">
@@ -29526,7 +29526,7 @@
         <v>1.4272</v>
       </c>
       <c r="C2645" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2646">
@@ -29537,7 +29537,7 @@
         <v>3.1736</v>
       </c>
       <c r="C2646" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2647">
@@ -30109,7 +30109,7 @@
         <v>12.4272</v>
       </c>
       <c r="C2698" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2699">
@@ -30120,7 +30120,7 @@
         <v>2.416</v>
       </c>
       <c r="C2699" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2700">
@@ -30131,7 +30131,7 @@
         <v>1.4104</v>
       </c>
       <c r="C2700" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2701">
@@ -30538,7 +30538,7 @@
         <v>3.9336</v>
       </c>
       <c r="C2737" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="2738">
@@ -30549,7 +30549,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C2738" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="2739">
@@ -30799,7 +30799,7 @@
         <v>2759</v>
       </c>
       <c r="B2761" t="n">
-        <v>24.9544</v>
+        <v>17.948</v>
       </c>
       <c r="C2761" t="n">
         <v>12187501</v>
@@ -30810,7 +30810,7 @@
         <v>2760</v>
       </c>
       <c r="B2762" t="n">
-        <v>11.4024</v>
+        <v>6.9184</v>
       </c>
       <c r="C2762" t="n">
         <v>12187501</v>
@@ -30821,7 +30821,7 @@
         <v>2761</v>
       </c>
       <c r="B2763" t="n">
-        <v>7.4184</v>
+        <v>6.785600000000001</v>
       </c>
       <c r="C2763" t="n">
         <v>12187501</v>
@@ -30832,20 +30832,9 @@
         <v>2762</v>
       </c>
       <c r="B2764" t="n">
-        <v>3.8768</v>
+        <v>18.7744</v>
       </c>
       <c r="C2764" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="2765">
-      <c r="A2765" s="1" t="n">
-        <v>2763</v>
-      </c>
-      <c r="B2765" t="n">
-        <v>18.7744</v>
-      </c>
-      <c r="C2765" t="n">
         <v>12187501</v>
       </c>
     </row>
